--- a/UnitySunflareSizing.xlsx
+++ b/UnitySunflareSizing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19920" windowHeight="9795"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19920" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,14 +133,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,16 +435,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -468,325 +468,325 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>A4*$G$4</f>
-        <v>51.2</v>
+        <v>25.6</v>
       </c>
       <c r="D4">
         <v>0.31</v>
       </c>
-      <c r="E4" s="6">
-        <f>$H$4/B4</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E11" si="0">$H$4/B4</f>
         <v>4.2</v>
       </c>
-      <c r="G4" s="3">
-        <v>512</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2">
+        <v>256</v>
+      </c>
+      <c r="H4" s="2">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C20" si="0">A5*$G$4</f>
-        <v>48.64</v>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C20" si="1">A5*$G$4</f>
+        <v>24.32</v>
       </c>
       <c r="D5">
         <v>0.39</v>
       </c>
-      <c r="E5" s="6">
-        <f>$H$4/B5</f>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.08</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>40.96</v>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>20.48</v>
       </c>
       <c r="D6">
         <v>0.49</v>
       </c>
-      <c r="E6" s="6">
-        <f>$H$4/B6</f>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>27</v>
       </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>81.92</v>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>40.96</v>
       </c>
       <c r="D7">
         <v>-0.3</v>
       </c>
-      <c r="E7" s="6">
-        <f>$H$4/B7</f>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>1.5555555555555556</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.02</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>10.24</v>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>5.12</v>
       </c>
       <c r="D8">
         <v>0.65</v>
       </c>
-      <c r="E8" s="6">
-        <f>$H$4/B8</f>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>61.44</v>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>30.72</v>
       </c>
       <c r="D9">
         <v>0.44</v>
       </c>
-      <c r="E9" s="6">
-        <f>$H$4/B9</f>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>0.16</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>81.92</v>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>40.96</v>
       </c>
       <c r="D10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E10" s="6">
-        <f>$H$4/B10</f>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>0.19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>24</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>97.28</v>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>48.64</v>
       </c>
       <c r="D11">
         <v>0.95</v>
       </c>
-      <c r="E11" s="6">
-        <f>$H$4/B11</f>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>0.33</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>18</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>168.96</v>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>84.48</v>
       </c>
       <c r="D13">
         <v>-0.16</v>
       </c>
-      <c r="E13" s="6">
-        <f>$H$4/B13</f>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:E20" si="2">$H$4/B13</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>0.31</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>32</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>158.72</v>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>79.36</v>
       </c>
       <c r="D14">
         <v>-0.22</v>
       </c>
-      <c r="E14" s="6">
-        <f>$H$4/B14</f>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
         <v>1.3125</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>0.24</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>42</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>122.88</v>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>61.44</v>
       </c>
       <c r="D15">
         <v>0.6</v>
       </c>
-      <c r="E15" s="6">
-        <f>$H$4/B15</f>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>0.17</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>23</v>
       </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>87.04</v>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>43.52</v>
       </c>
       <c r="D16">
         <v>0.72</v>
       </c>
-      <c r="E16" s="6">
-        <f>$H$4/B16</f>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
         <v>1.826086956521739</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>0.21</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>107.52</v>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>53.76</v>
       </c>
       <c r="D17">
         <v>1.2</v>
       </c>
-      <c r="E17" s="6">
-        <f>$H$4/B17</f>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>71.680000000000007</v>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>35.840000000000003</v>
       </c>
       <c r="D18">
         <v>1.7</v>
       </c>
-      <c r="E18" s="6">
-        <f>$H$4/B18</f>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
         <v>2.625</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>0.12</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>25</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>61.44</v>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>30.72</v>
       </c>
       <c r="D19">
         <v>1.4</v>
       </c>
-      <c r="E19" s="6">
-        <f>$H$4/B19</f>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
         <v>1.68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>0.1</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>30</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>51.2</v>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>25.6</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="6">
-        <f>$H$4/B20</f>
+      <c r="E20" s="5">
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
